--- a/historical-image-deep-description/metadata.xlsx
+++ b/historical-image-deep-description/metadata.xlsx
@@ -18,13 +18,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="SourceHanSansCN-Regular"/>
+      <charset val="134"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -491,133 +496,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -625,10 +630,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1006,147 +1011,1281 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
-  <cols>
-    <col width="17.7545454545455" customWidth="1" style="1" min="3" max="3"/>
-    <col width="16.8727272727273" customWidth="1" style="1" min="4" max="4"/>
-    <col width="29.6272727272727" customWidth="1" style="1" min="6" max="6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
+          <t>页码</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
           <t>编号</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>题名</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>所属专题</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>地点</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>地址</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>相关人物</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>说明</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="I1" s="0" t="inlineStr">
         <is>
           <t>长描述</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="J1" s="0" t="inlineStr">
         <is>
           <t>替换文本</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>OCR文本</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
         <is>
           <t>关键词JSON</t>
         </is>
       </c>
-      <c r="I1" s="0" t="inlineStr">
+      <c r="M1" s="0" t="inlineStr">
         <is>
           <t>L1结构化JSON</t>
         </is>
       </c>
-      <c r="J1" s="0" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>L2知识关联JSON</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="409.5" customHeight="1" s="1">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>2202_001</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>话剧《日出》于1937年2月2日至5日由上海戏剧工作社在卡尔登大戏院首演</t>
+    <row r="2" ht="15.5" customHeight="1" s="2">
+      <c r="A2" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>2199_001</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
+          <t>1907年春柳社在东京演出《黑奴旴天录》的海报</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
           <t>话剧图片</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>凤子, 欧阳予倩</t>
-        </is>
-      </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>《日出》于1937年2月2日至5日由上海戏剧工作社在卡尔登大戏院首演导演欧阳予倩凤子主演陈白露同年3月《日出》又由中国留东剧人协会在日本东京神田一桥讲堂公演仍由凤子应邀赴日主演陈白露图为该剧第3幕剧照翠喜中扮演者为留日学生尹女士</t>
+          <t>东京</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-一张黑白照片呈现了一个室内舞台布景场景。画面左侧有一位男性站立，他身穿浅色上衣和深色长裤，双臂交叉抱于胸前，身旁是一张带有竖条栏杆的床铺，床上铺有浅色床单。画面中央偏下位置有一张方形木质桌子，桌面上摆放着若干小型物件。桌子左侧的椅子上坐着一位女性，她面向镜头方向，右手抬起靠近面部；桌子右侧的凳子上坐着一位背对镜头的人物，身体微微前倾，似乎在与桌上的物品互动。背景中可见多扇带有几何图案格子的木质门窗，部分门窗上挂着白色布帘，右侧墙角处还垂挂着一块深色布料。整个场景的地板为木质材质，光线分布使得部分区域较亮，部分区域较暗，呈现出典型的舞台灯光效果。</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>&lt;|begin_of_box|&gt;话剧《日出》第三幕剧照，展示简朴居室场景，三人围坐桌边，背景有木质屏风与床铺。&lt;|end_of_box|&gt;</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>{
-  "subject_objects": ["床", "男性", "桌子", "女性", "椅子", "屏风", "窗户", "布帘", "布料"],
-  "scene_keywords": ["话剧舞台", "室内场景", "黑白照片", "第三幕", "戏剧表演"],
+          <t>日本东京</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>1907年春柳社在东京演出《黑奴旴天录》的海报</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白色调的历史照片，内容为一张1907年春柳社在东京演出《黑奴天录》的海报。海报整体呈横向矩形，中央偏上的位置用较大字体书写标题“黑奴天录”，字体为手写体，居中排列。标题左右两侧有较小的竖排中文文字，左上角和右上角分别有“春柳社演出”及“东京演出”等信息，字体较小，排列稀疏。
+画面中心偏右位置为一幅矩形插图，插图描绘了一个山坡或户外场景。画面中有多个人物，前景中有一人站立，身穿深色上衣和浅色下装，手持工具，面向画面左侧。其后方有几个人物分布在山坡上，姿态各异，有的坐着，有的站立，均朝向不同方向。插图左下角有一卷展开的画轴形象，似乎与场景相连。
+在插图右上角，有一个心形边框的小插图，内部描绘两个人物站在栏杆或阳台旁，一人穿着深色服饰，另一人着浅色服饰，两人面对面站立，似有交流动作。心形插图与主插图有部分重叠。
+海报四周环绕大量竖排小字，分布在上下左右边缘，文字排列整齐，内容密集。下方和左右两侧的文字较为细小，排列成块状，覆盖整个边缘区域。
+照片本身有轻微的颗粒感和模糊，部分细节略显不清，但整体内容结构清晰。照片右下角有一块明显的空白区域，无内容。</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>1907年春柳社在东京演出《黑奴天录》海报，中央为山坡场景与心形插图，四周环绕大量竖排小字</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>黑奴天錄
+春柳社演出
+丁未夏東京演出
+（插图内容无法准确识别）</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["海报", "标题", "插图", "人物", "工具", "画轴", "心形插图", "栏杆", "阳台", "竖排文字"],
+  "scene_keywords": ["历史", "戏剧演出", "东京", "黑白照片", "户外场景", "山坡"],
   "specific_context": {
-    "event_name": "话剧《日出》",
-    "time": "1937年2月2日至5日",
-    "location": "卡尔登大戏院",
-    "named_entities": ["上海戏剧工作社", "欧阳予倩", "凤子", "中国留东剧人协会", "日本东京神田一桥讲堂"]
+    "location": "东京",
+    "event_name": "1907年春柳社在东京演出《黑奴旴天录》"
   }
 }</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>{
-  "location": "上海",
-  "theater": "卡尔登大戏院",
-  "organization": "上海戏剧工作社",
-  "datetime": "1937-02-02",
-  "work_title": "日出",
-  "event_title": "话剧《日出》首演",
-  "event_type": "首演",
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": "东京",
+  "architecture": null,
+  "organization": "春柳社",
+  "datetime": "1907年夏",
+  "work_title": "黑奴天录",
+  "event_title": "春柳社在东京演出《黑奴天录》",
+  "event_type": "演出",
+  "cast": [],
+  "persons": [],
+  "entities": [
+    {
+      "type": "物品说明",
+      "text": "1907年春柳社在东京演出《黑奴旴天录》的海报"
+    }
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Z13_009</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>春柳社在日本东京本乡座</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>话剧图片</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>日本名剧黑奴吁天录，春柳社在日本东京本乡座摄影。</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片显示一组人在室内舞台上排成一排，画面呈横向构图。照片的整体色调为灰度黑白，画面略有斑点和轻微褪色，属于历史照片。舞台背景为大型墙面绘画，中央绘有一丛树叶状装饰，两侧为简化的风景图案，墙面由竖直的壁柱分隔，呈现出简洁的装饰风格。舞台前方地面平坦，前景可见部分木质台阶和地板。
+画面左侧站立着七位穿着相似服装的女性，她们身穿浅色连衣裙，裙长至膝盖下方，搭配浅色袜子和鞋子。她们的头发较长，披散在肩，姿态各异，有的双手叉腰，有的双手自然下垂，均面向舞台中央。她们的体型和身高较为接近，排列紧密。
+左侧女性旁边，站着两位身穿深色西式服装的男性，他们身材较为瘦高，佩戴西装外套，裤子为深色，脚穿皮鞋。两人之间有一位身穿浅色背心、深色裤子的男性，身体前倾，似乎在鞠躬，头发较长。
+舞台中央偏左，有两位身穿西式童装的儿童，衣服为带花纹的衬衫和短裤，脚穿长袜和皮鞋。两人并排站立，身体直立。
+中央偏右站立一位身穿浅色长裙的女性，裙子拖地，腰部系有装饰带，头戴宽檐帽，帽上有花饰。她的右手叉腰，左手自然下垂，面向舞台右侧。
+她右侧有一位身穿深色外套、浅色裤子、长靴的男性，头戴宽檐帽，帽檐微翘。他身体微侧，面向舞台右侧，双手自然下垂。
+再往右，有一位身穿深色长外套、白色衬衫、短裤和长袜的男性，脚穿浅色鞋，手持一根拐杖。他旁边站着一位身穿深色长裙、外套，头戴帽子的女性，双手交叠于腹前。
+最右侧有三位身穿西式礼服的男性，他们穿着深色外套、白色衬衫、长裤，头戴帽子或假发。最右一人身材较高，站立姿势端正，双手自然下垂。
+舞台上所有人物均面向观众方向，姿态各异，有站立、鞠躬、叉腰、持物等动作。人物间距离较近，整体排列呈弧形，覆盖整个舞台宽度。服装风格统一，均为西式戏剧服饰，部分人物佩戴帽子或假发，服装细节繁复。舞台背景简洁，未见复杂道具或布景。照片边缘有轻微磨损和黑点，属于原始照片的物理状况。</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>春柳社成员在日本东京本乡座舞台表演黑奴吁天录，身着西式戏剧服饰排成一排</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>七点</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": [
+    "女性演员",
+    "男性演员",
+    "儿童演员",
+    "西式戏剧服饰",
+    "帽子",
+    "拐杖",
+    "舞台背景",
+    "墙面绘画",
+    "木质台阶",
+    "地板"
+  ],
+  "scene_keywords": [
+    "室内舞台",
+    "戏剧表演",
+    "历史照片",
+    "集体合影",
+    "西式服装",
+    "日本东京本乡座",
+    "话剧"
+  ],
+  "specific_context": {
+    "location": "日本东京本乡座",
+    "event_name": "春柳社在日本东京本乡座",
+    "topic": "话剧图片"
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": "日本东京",
+  "architecture": "本乡座",
+  "organization": "春柳社",
+  "datetime": null,
+  "work_title": "黑奴吁天录",
+  "event_title": "春柳社在日本东京本乡座演出《黑奴吁天录》摄影",
+  "event_type": "公演",
+  "cast": [],
+  "persons": [],
+  "entities": [
+    {
+      "type": "物品说明",
+      "text": "摄影"
+    }
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>302_002</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>春阳社全体社员扮演黑奴籲天摄影</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>春阳社全体社员扮演黑奴籲天摄影4×8 上品</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片显示约二十名人物分三排集体合影，画面色调为灰黑色。照片主体为一群身着各异服饰的男女，排列在画面中央及两侧。人物坐姿和站姿交错，前排人物坐在地面或蹲坐，中排和后排人物坐在椅子上或站立。服饰多样，包括西式西装、衬衫、长裙、披肩、帽子等。部分人物佩戴花环或头饰，衣物上可见装饰性的花朵或缎带。前排人物手中持有大量花束，花束体积较大，花朵密集，部分花枝自然垂落于地面。人物之间距离较近，肩部和手臂相互接触，整体排列紧密。画面左下角和右下角各有一名人物坐在地面，双腿伸直，双手自然放于膝上或地面。背景为单一深色幕布，无明显装饰或场景元素。照片边缘略有磨损，表面可见轻微斑点和划痕。整体构图横向展开，人物占据画面绝大部分空间，背景简洁。</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>春阳社全体社员身着多样服饰分三排合影，部分持花束装饰花环，背景为深色幕布</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr"/>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["人物", "西装", "衬衫", "长裙", "披肩", "帽子", "花环", "头饰", "花束", "椅子"],
+  "scene_keywords": ["集体合影", "黑白照片", "室内", "深色幕布"],
+  "specific_context": {}
+}</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": "春阳社",
+  "datetime": null,
+  "work_title": "黑奴籲天",
+  "event_title": "春阳社全体社员扮演黑奴籲天摄影",
+  "event_type": "摄影",
+  "cast": [],
+  "persons": [],
+  "entities": []
+}</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>2199_002</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>1908年通琴学校演出《迦兰小传》的传单</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>1908年通琴学校演出《迦兰小传》的传单</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片显示了一份传单，传单内容与1908年通琴学校演出《迦兰小传》相关。传单整体呈横向矩形，版面分为若干区域，包含文字和多张小型剧照。照片略有模糊，边缘部分有轻微的褪色和颗粒感。
+传单的最上方中央用较大字体印有“迦兰小传”四个汉字，字体粗壮、手写风格。标题下方居中分布着五张剧照，呈两行排列：上排三张，下排两张，中央下方为一张椭圆形剧照。每张剧照下方均有简短的文字说明。剧照内容均为室内布景，画面中有多位身着长袍、裙装或西式服饰的人物，姿态各异，有站立、交谈、拥抱、坐地等动作。剧照中的人物均为成年人，形象清晰可辨但面部细节不明显。背景多为绘制的布景，部分剧照中可见桌椅等道具。
+传单左上角有两行较小字体的竖排文字，右上角则有一面绘制的旗帜图案，旗帜内部写有“敬邀莅临 / 民众大会演出”字样。旗帜下方为竖排说明文字，内容较为密集。标题下方左侧和右侧均有大段竖排汉字说明，排列整齐，字体大小适中。说明文字内容分为若干段落，部分段落之间有明显的间距。
+传单底部横向分布着两大块竖排文字区域，文字排列成表格或名单样式，间隔处有点状符号。左下和右下方文字区域之间有空白分隔。整个传单未见明显的破损或污渍，保存状况良好。
+照片右下角有一枚红色印章，但未包含在描述范围内。</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>1908年通琴学校演出《迦兰小传》传单，包含剧照、标题和详细演出信息</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>迦兰小传
+敬邀莅临
+民众大会演出
+（剧照下方说明略，因分辨率原因难以完整提取）
+（左右两侧及底部为竖排详细说明和名单，内容密集且部分文字不清晰）</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["传单", "剧照", "人物", "旗帜", "桌椅", "文字", "服饰"],
+  "scene_keywords": ["学校演出", "戏剧", "宣传品", "1908年", "室内布景"],
+  "specific_context": {
+    "time": "1908年",
+    "event_name": "通琴学校演出《迦兰小传》"
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": "通琴学校",
+  "datetime": "1908",
+  "work_title": "迦兰小传",
+  "event_title": "通琴学校演出《迦兰小传》",
+  "event_type": "演出",
+  "cast": [],
+  "persons": [],
+  "entities": [
+    {
+      "type": "物品说明",
+      "text": "1908年通琴学校演出《迦兰小传》的传单"
+    },
+    {
+      "type": "物品说明",
+      "text": "（剧照下方说明略，因分辨率原因难以完整提取）"
+    },
+    {
+      "type": "物品说明",
+      "text": "（左右两侧及底部为竖排详细说明和名单，内容密集且部分文字不清晰）"
+    }
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>302_010</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>陈大悲照片一张</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>陈大悲照片一张蛋型照 上品</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片，整体呈蛋形边框。画面中央偏右位置站立着一名身穿传统服饰的人物，其服饰包括浅色的围裙、深色的上衣和裙子，衣服上有明显的花纹装饰，头部佩戴有明显的头饰。此人身体微微前倾，双手交叠于腹部位置，右手握着一块布，左臂自然下垂。人物正面朝向画面右侧，其身后右侧放置一把椅子，椅子靠背呈圆弧形，座面较低。画面左侧背景有另一名身穿类似服饰的人物，背对镜头，身体向左倾斜，左臂抬起，手部靠近墙面。两人之间有一条明显的分界线，将背景分为左右两部分，左侧背景较为明亮，右侧背景较暗。地面为浅色与深色相间的方格地砖。整体照片边缘有黑色细线勾勒的蛋形轮廓，照片保存状况良好，未见明显损伤或褪色。</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>陈大悲身穿传统服饰和围裙，双手交叠站于蛋形边框黑白照片中央</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr"/>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["人物", "传统服饰", "围裙", "上衣", "裙子", "头饰", "布", "椅子", "地砖"],
+  "scene_keywords": ["室内", "黑白照片", "蛋形边框"],
+  "specific_context": {
+    "named_entities": "陈大悲"
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": null,
+  "datetime": null,
+  "work_title": null,
+  "event_title": null,
+  "event_type": null,
+  "cast": [],
+  "persons": [],
+  "entities": [
+    {
+      "type": "提及人物",
+      "text": "陈大悲照片一张蛋型照 上品"
+    }
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>2200_002</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>1911年前后进化团演出《安重根刺伊藤》</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>1911年前后进化团演出《安重根刺伊藤》</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片显示三个穿着正式服装的人物，画面左侧人物身穿浅色长袖外套，身体微微前倾，双手递出一个浅色碗状物体，位于画面中央人物的面前。中央人物身穿深色西装，白色衬衫和领结，右手自然下垂，左手靠近身体，身体直立，面向左侧。画面右侧人物同样身穿深色西装、白色衬衫和领结，胸前佩戴圆形徽章，身体稍微偏向中央人物。三人均站立，彼此之间距离较近。照片背景整体较暗，未见明显细节，左侧背景有浅色区域。画面右上方有数行竖排的汉字，内容为“安重根刺伊藤”。照片整体呈现颗粒感，部分区域有轻微模糊，属于历史照片。照片右下角有红色印章，但未作描述。</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>1911年前后进化团演出《安重根刺伊藤》，三位演员身着西装，表演递碗场景</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>安重根
+刺
+伊藤</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["人物", "碗状物体", "西装", "徽章", "汉字"],
+  "scene_keywords": ["历史照片", "演出", "黑白照片", "正式服装"],
+  "specific_context": {
+    "event_name": "进化团演出《安重根刺伊藤》",
+    "time": "1911年前后"
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": "进化团",
+  "datetime": "1911年前后",
+  "work_title": "安重根刺伊藤",
+  "event_title": "进化团演出《安重根刺伊藤》",
+  "event_type": "演出",
+  "cast": [],
+  "persons": [],
+  "entities": []
+}</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Z13_015</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>日本名剧（血蓑衣）</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>日本名剧（血衣）（朱志扬）（李君盘）（王家民）（沈冰血）（柴晓云）化妆摄影。</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片显示五人合影，背景为绘有树木和天空的布景画布。画面左侧，一位身穿长裙的女性人物坐在椅子上。她的裙子宽大，呈浅色，裙摆触地，右手持有一本书或册子，左手轻触面部。她头戴宽檐帽，帽檐上装饰有羽毛和花朵，颈部系有深色围巾，肩部披有深色披肩或围巾。
+她右侧站立着一名身穿深色制服外套的男性人物，外套有明显的肩章和袖口装饰，头戴一顶带有帽徽的军帽。他的左臂自然下垂，右臂微微弯曲，手靠近身体。再往右是一名身穿长款深色外套的男性人物，外套长度及膝，双手交握于腹前，头戴一顶小巧帽子。
+画面中央偏右是一名身穿皮草披肩的女性人物。她的披肩为深色，胸前悬挂一只完整的毛皮动物装饰，内穿浅色衣物，头戴高顶帽，帽上插有装饰羽毛。她右手自然下垂，左手微微前伸，身体略向左侧倾斜。
+最右侧是一名身穿西装的男性人物，西装为深色，内穿浅色衬衫和深色领带。他双手自然下垂，站立姿势较为挺直，双脚分开，面向正前方。
+五人均着装考究，服饰风格各异，展现出不同的身份或角色。人物之间间距适中，站姿各异，部分人物略有身体倾斜或手势动作。照片整体色调为黑白，画面底部可见稻草或草席状物铺地，部分区域有轻微划痕和斑点痕迹。背景为绘制的自然景观，未见真实环境细节。</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>朱志扬、李君盘、王家民、沈冰血、柴晓云身着戏服，合影于绘画布景前</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr"/>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": [
+    "女性人物",
+    "长裙",
+    "帽子",
+    "书",
+    "男性人物",
+    "制服外套",
+    "军帽",
+    "长款外套",
+    "皮草披肩",
+    "毛皮动物装饰",
+    "西装",
+    "椅子"
+  ],
+  "scene_keywords": [
+    "合影",
+    "剧照",
+    "布景画布",
+    "树木",
+    "天空",
+    "黑白照片",
+    "稻草",
+    "草席"
+  ],
+  "specific_context": {
+    "event_name": "日本名剧（血蓑衣）",
+    "named_entities": ["朱志扬", "李君盘", "王家民", "沈冰血", "柴晓云"]
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": null,
+  "datetime": null,
+  "work_title": "血蓑衣",
+  "event_title": "日本名剧《血蓑衣》化妆摄影",
+  "event_type": "化妆摄影",
   "cast": [
-    {"actor": "凤子", "role": "陈白露"}
+    {"actor": "朱志扬"},
+    {"actor": "李君盘"},
+    {"actor": "王家民"},
+    {"actor": "沈冰血"},
+    {"actor": "柴晓云"}
+  ],
+  "persons": [],
+  "entities": []
+}</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>342_005</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>新剧“血泪碑”剧照</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>新剧“血泪碑”剧照。李悲世、邹福元、凌怜影、有若无。4寸 上品</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片，画面中央为四位身穿传统服饰的人物，呈现出舞台剧表演的情景。背景为绘制的乡村景色，画面左侧可见一座带有斜屋顶的房屋，周围有树木和灌木装饰。前景为仿草地的地面，地面上散落着几件道具物品，包括两个手提包。
+从左至右，第一位人物站立，身穿宽松的长衫和阔腿裤，双手自然下垂，脚穿布鞋，身体微微侧向画面中央。第二位人物也站立，身着浅色上衣和深色长裙，双臂交叠于身前，手中夹着一只手提包。第三位人物坐在地上，身体向右侧倾斜，一只手高高举起，另一只手被旁边人物拉扯，腿部呈自然弯曲状，脚下有一只鞋。第四位人物站立在最右侧，身着印花长袍，双手抓住坐地人物的手臂，身体略微前倾。
+画面上方有一条横幅，上面写有中文文字：“新剧‘血泪碑’之剧照。时为民国，演员：李悲世、邹福元、凌怜影、有若无。”文字位于照片上方边缘。整幅照片四角略呈八边形，边框内侧有细线装饰。照片整体略有轻微划痕和颗粒感，反映出一定的年代感。</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>李悲世、邹福元、凌怜影、有若无在新剧血泪碑舞台剧服饰造型表演互动</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>新剧‘血泪碑’之剧照。时为民国，演员：李悲世、邹福元、凌怜影、有若无。</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["人物", "传统服饰", "手提包", "房屋", "树木", "灌木", "道具", "鞋", "横幅"],
+  "scene_keywords": ["舞台剧表演", "乡村景色", "民国时期", "剧照", "黑白照片"],
+  "specific_context": {
+    "event_name": "新剧“血泪碑”",
+    "named_entities": ["李悲世", "邹福元", "凌怜影", "有若无"]
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": null,
+  "datetime": "民国",
+  "work_title": "血泪碑",
+  "event_title": "新剧《血泪碑》剧照",
+  "event_type": "剧照",
+  "cast": [
+    {"actor": "李悲世"},
+    {"actor": "邹福元"},
+    {"actor": "凌怜影"},
+    {"actor": "有若无"}
+  ],
+  "persons": [],
+  "entities": []
+}</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>343_008</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>新剧“爱之花”剧照</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>新剧“爱之花”剧照。殷怡怡、柴晓云、钱剑胆合演。4寸 上品</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片显示一个室内场景，画面中央偏左有两人坐在一张曲线靠背的沙发椅上。左侧人物穿着深色长裙，头戴帽饰，双手持有一张纸片，坐姿端正。右侧人物穿着深色西服，身子微微前倾，右手搭在椅背上，左手持有一张纸片，双腿交叉。两人之间放置着一个圆柱形金属炉具，炉具底部有四只短腿，顶部为平面。
+画面左侧靠近边缘处，有一人穿着白色围裙、深色裤子和鞋，站在打开的门口，左手持有一只羽毛掸子，右手握着门把手。此人身后是房门，门半开，门框和门板清晰可见。门口地面铺有花纹地毯，延伸至画面中心。
+画面中央背景为一组垂直悬挂的浅色窗帘，窗帘上有流苏和花边装饰，窗帘后面隐约可见墙面。窗帘右侧有一盆高大植物，叶片向上伸展，位于沙发和人物后方。
+画面右侧是一张方形桌子，桌面覆盖有花纹桌布，桌上摆放着几件物品，包括一个瓶状容器、一本厚书、几卷纸和一个花瓶，花瓶中插有枝条和花朵。桌子后方靠墙放置着一个大型机械装置，底座宽大，上部有多个圆形部件，外观复杂。
+右下角靠近画面边缘的位置，有一张小型椅子，椅面铺有浅色软垫，椅背为竖条结构，椅面上放置着一个长方形枕垫。椅子前方地面铺有花纹地毯，地毯边缘在画面下方清晰可见。
+整个画面色调为黑白，所有细节均以灰度层次表现。照片边缘呈现八角形裁切，四角被截去。画面未见明显划痕或褪色，整体保存状况良好。</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>殷怡怡与柴晓云坐在沙发上对话，钱剑胆身穿围裙手持羽毛掸子站在门口</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr"/>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": [
+    "女性",
+    "男性",
+    "沙发椅",
+    "纸片",
+    "金属炉具",
+    "窗帘",
+    "植物",
+    "桌子",
+    "桌布",
+    "瓶状容器",
+    "书",
+    "纸卷",
+    "花瓶",
+    "花朵",
+    "机械装置",
+    "椅子",
+    "枕垫",
+    "地毯",
+    "门",
+    "羽毛掸子"
+  ],
+  "scene_keywords": [
+    "室内",
+    "剧照",
+    "黑白照片",
+    "戏剧场景"
+  ],
+  "specific_context": {
+    "event_name": "新剧“爱之花”",
+    "named_entities": ["殷怡怡", "柴晓云", "钱剑胆"]
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": null,
+  "datetime": null,
+  "work_title": "爱之花",
+  "event_title": "新剧“爱之花”剧照",
+  "event_type": "剧照",
+  "cast": [
+    {"actor": "殷怡怡"},
+    {"actor": "柴晓云"},
+    {"actor": "钱剑胆"}
+  ],
+  "persons": [],
+  "entities": []
+}</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>342_004</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>新剧“恨海”剧照</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>新剧“恨海”剧照。子青 子美。蛋型照 上品</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白蛋形照片，画面中央有两个人物。右侧人物坐在椅子上，身穿宽大的传统戏曲服饰，服饰上有明显的圆形纹饰，中央可见汉字“寿”字装饰，衣服边缘有流苏。此人右手持一根长杆状物体，左手自然放在膝上。左侧人物跪坐在地面，身体微微前倾，右手搭在右侧人物的左膝上，左手握住一条白色布条。左侧人物身穿中式长袍，袍子为浅色，外披一条白色长巾，巾端有流苏。两人脚下均着黑色鞋子。背景为室内布景，右侧可见一张小桌，桌上有花瓶和插花，花瓶旁有装饰性的植物枝叶。背景墙面为浅色，右上方悬挂着一幅画或装饰品，画面边缘有帷幔式布料下垂。照片边缘为蛋形切割，整体色调为黑白，人物和服饰细节较为清晰。照片表面局部有轻微划痕和斑点，未见明显损伤。</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>新剧“恨海”剧照，子青身穿浅色长袍跪地，子美着戏曲服饰端坐椅上</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>寿</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["人物", "椅子", "戏曲服饰", "长杆", "长袍", "长巾", "黑色鞋子", "小桌", "花瓶", "插花", "植物枝叶", "画", "帷幔"],
+  "scene_keywords": ["剧照", "室内", "戏曲", "黑白照片", "蛋形照片"],
+  "specific_context": {
+    "event_name": "新剧“恨海”",
+    "named_entities": ["子青", "子美"]
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": null,
+  "datetime": null,
+  "work_title": "恨海",
+  "event_title": "新剧“恨海”剧照",
+  "event_type": "剧照",
+  "cast": [
+    {"actor": "子青"},
+    {"actor": "子美"}
+  ],
+  "persons": [],
+  "entities": [
+    {"type": "物品说明", "text": "蛋型照 上品"}
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>1163_004</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>春柳新剧同志会</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>陆镜若, 金石声</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>春柳新剧同志会蒋镜澄陆镜若姚镜明罗曼士马绛士金石声音乐师日人早川佈景师日人细谷吴惠仁</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片显示一组人集体合影，拍摄于建筑物前。画面中央和背景部分是一排带有几何图案的木质窗格，窗格上方悬挂一块横幅，横幅上有手写的中文文字：“春柳新剧同志会摄影摄旅”。人群分为两排，后排为站立姿势，前排为坐姿。后排人数较多，均穿着厚重的中式或西式外套，有的衣物呈浅色，有的为深色，部分人戴有帽子。前排共五人，均穿着深色西式西服和长裤，佩戴帽子，衣着整齐。前排人物面前摆放有乐器，包括左侧的低音号、中间的小号、右侧的两面鼓（分别为大鼓和小鼓），乐器旁放有乐谱架，上面夹有乐谱纸张。人物间隔紧密，整体合影呈规则的排列。照片左下角和右下角分别有乐器和鼓，右下方鼓旁地面有一小鼓。画面右下角有红色印章，但未包含在描述范围内。整体照片色调为黑白，图像有轻微的模糊和颗粒感，属于历史照片。人物表情和面部细节未显示。</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>春柳新剧同志会成员集体合影，前排五人持铜管乐器与鼓，背景为木质窗格与横幅</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>春柳新劇同志會攝影攝旅</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["人物", "乐器", "低音号", "小号", "大鼓", "小鼓", "乐谱架", "乐谱纸张", "帽子", "横幅", "木质窗格", "建筑物"],
+  "scene_keywords": ["集体合影", "建筑物前", "春柳新剧同志会", "黑白照片", "历史照片"],
+  "specific_context": {
+    "event_name": "春柳新剧同志会",
+    "named_entities": ["陆镜若", "金石声"]
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": "春柳新剧同志会",
+  "datetime": null,
+  "work_title": null,
+  "event_title": "春柳新剧同志会摄影",
+  "event_type": null,
+  "cast": [
+    {"actor": "蒋镜澄"},
+    {"actor": "陆镜若"},
+    {"actor": "姚镜明"},
+    {"actor": "罗曼士"},
+    {"actor": "马绛士"},
+    {"actor": "金石声"}
   ],
   "persons": [
-    {"name": "欧阳予倩", "duty": "导演"},
-    {"name": "凤子", "duty": "演员"}
+    {"name": "早川", "duty": "音乐师"},
+    {"name": "细谷", "duty": "佈景师"},
+    {"name": "吴惠仁", "duty": null}
   ],
+  "entities": []
+}</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>332_001</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>新剧家映燕士合演家庭恩怨记</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>新剧家映燕士合演家庭恩怨</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片显示两个人物站立在室内布景前。画面左侧是一名穿着深色上衣和浅色长裤的人，身体正对镜头，左臂弯曲抬起，手中持有一卷状物体，右手搭在卷物上，姿态呈现出动作感。此人身形较高，体型偏瘦。画面右侧是一名穿着浅色长上衣和长裤的人，站姿较为放松，双手持一块布料，布料一端搭在右肩，另一端被双手握住，靠近面部。此人身形较为纤细，右腿微微前屈，左脚支撑身体，整体姿势略显侧身。两人之间的距离约为半臂宽。
+背景为绘制或布置的室内场景，中央靠后位置摆放一张桌子或矮柜，柜面上置有一盆植物，植物叶片细长，向上生长。柜体两侧各有一个较小的物体，形状接近杯状或瓶状。地面上可见杂乱的花纹或斑驳痕迹，未见其他明显物品。照片四周有黑色细线边框，图像右下角有一处红色方形印章，但未包含在描述范围内。
+整体画面人物和背景元素分布均匀，主体清晰，人物所穿服饰具有一定历史特色。照片无明显划痕或褪色痕迹，保存状况较好。</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>新剧家映燕士在室内布景前表演家庭恩怨，一人持卷轴一人持布巾</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr"/>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["人物", "卷状物体", "布料", "桌子", "植物", "柜子", "杯状物", "瓶状物"],
+  "scene_keywords": ["室内", "舞台布景", "家庭", "历史服饰"],
+  "specific_context": {}
+}</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": "新剧家映燕士",
+  "datetime": null,
+  "work_title": "家庭恩怨记",
+  "event_title": "新剧家映燕士合演家庭恩怨记",
+  "event_type": "合演",
+  "cast": [],
+  "persons": [],
+  "entities": []
+}</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>302_015</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>著名新剧之图</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>著名新剧家庭恩怨记之图清风双宜惜花破尘4×6 上品</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片显示四人站在一个室内布景前。画面左侧是一处大型圆形门洞，门洞内有两人站立。左侧人物穿着深色长衫和长裙，双手在胸前交叠，脚穿浅色鞋。右侧人物穿着浅色上衣和条纹裤，右手自然下垂，左手微微前伸，脚穿深色鞋。门洞后方是绘制的背景画，画中有蜿蜒的小路、树木、灌木丛以及几座白色屋顶的房屋，远处还有更多建筑，整体营造出乡村景致。
+画面右侧站立两人，靠近一段中式栏杆。左侧人物穿着浅色印花长衫和深色长裙，头发盘起并饰有发簪，右手自然下垂，左手搭在身旁人物的手臂上。右侧人物穿着深色上衣和浅色长裙，右臂搭在栏杆上，左臂自然下垂。两人脚穿浅色鞋，身体靠近，面向彼此。栏杆采用几何图案，整体呈深色，位于画面右下方。
+地面为木质地板，画面四周为浅色墙面，墙面略有斑驳和划痕。整张照片未见明显损坏，色调均匀。</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>四人身着清末民初服饰，站在圆门与栏杆前，背景为田园画布景</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr"/>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["人物", "圆形门洞", "长衫", "长裙", "栏杆", "木质地板", "墙面", "背景画", "房屋", "树木", "灌木丛", "建筑"],
+  "scene_keywords": ["室内", "家庭", "乡村景致", "中式布景", "剧照", "黑白照片"],
+  "specific_context": {}
+}</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": null,
+  "datetime": null,
+  "work_title": "家庭恩怨记",
+  "event_title": "著名新剧家庭恩怨记之图",
+  "event_type": null,
+  "cast": [],
+  "persons": [],
   "entities": [
-    {"type": "相关演出", "text": "同年3月《日出》又由中国留东剧人协会在日本东京神田一桥讲堂公演仍由凤子应邀赴日主演陈白露"},
-    {"type": "物品说明", "text": "图为该剧第3幕剧照翠喜中扮演者为留日学生尹女士"}
+    {"type": "物品说明", "text": "清风双宜惜花破尘4×6 上品"}
   ]
 }</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Z3_002</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>欧阳予倩、查天影戏装照</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>欧阳予倩</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>名青衣欧阳予倩饰馒头庵之智能、查天影饰馒头庵之秦钟影。</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片显示两位人物并肩站立，身穿复杂的戏曲服饰。画面主体居中，两人站在素色背景前，脚踏地面，双脚相邻。左侧人物身着长袍，袍体为浅色，袖口和下摆饰有圆形图案，每个圆环内绘有花卉或植物纹样。袍身上部装饰有流苏和绣线，腰间系有长带。此人头戴高耸的头饰，顶部有多个球状物和花朵造型，头饰下垂有两条粗长的黑色发束，发束垂至胸前。右侧人物服饰同样繁复，袍体为浅色，上有精细的刺绣图案，肩部搭有宽大的披肩，披肩下垂至手臂外侧。右侧人物头戴冠饰，冠顶装饰有羽状物和结饰，头发部分梳理整齐，冠饰下垂有细长的流苏。两人均穿着宽大的长裤，裤脚处有细密的褶皱，脚穿黑色平底鞋。两人手臂自然下垂，袖口宽大，部分遮挡身体细节。画面整体色调为黑白，人物服饰上的图案和纹饰清晰可见。背景为深色，未见任何道具或额外装饰，仅突出人物造型。照片边缘无明显损伤或划痕，画面保存较好。</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>欧阳予倩与查天影身穿精美戏曲服饰并肩站立，展示传统剧装细节</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr"/>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": ["欧阳予倩", "查天影", "戏曲服饰", "头饰", "长袍", "披肩", "长裤", "平底鞋"],
+  "scene_keywords": ["戏装照", "戏曲造型", "黑白照片", "素色背景"],
+  "specific_context": {
+    "named_entities": ["欧阳予倩", "查天影"]
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": null,
+  "datetime": null,
+  "work_title": "馒头庵",
+  "event_title": null,
+  "event_type": null,
+  "cast": [
+    {"actor": "欧阳予倩", "role": "智能"},
+    {"actor": "查天影", "role": "秦钟影"}
+  ],
+  "persons": [],
+  "entities": []
+}</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>{"entities": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>331_001</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>新剧《神圣之爱》剧照</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>新剧《神圣之爱》剧照。4寸 上品</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>一张黑白照片，画面中央是一张两人并排坐在长椅上的场景。两人均为短发，穿着传统中式服装。左侧人物上身着浅色长衫，下身为浅色裤装，双腿交叠，左手持一张纸，右手自然下垂。右侧人物上身着深色长衫，下身为深色宽松裤装，双脚平放在地面，双手分别搭在膝上和椅子扶手上。两人身体微微前倾，面部朝向前方。
+左侧背景靠近画面边缘的位置有一面高大的直立镜子，镜中可见一位身穿格子图案上衣、头戴发饰的人物背影，此人坐在一把有靠背的椅子上。镜子下方地面上放有一个圆形花盆。画面右侧有一张覆盖有花纹桌布的小圆桌，桌上整齐叠放着几本书。背景墙壁上悬挂着一幅帷幔状的布帘，帘布上有竖直的褶皱，中央有一条横向的折痕或缝线。地面为浅色，表面有细小斑点或纹理。
+照片整体色调为黑白，画面左侧较暗，右侧较亮。照片边缘有细线框。照片原始内容边角无明显损伤。</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>新剧《神圣之爱》剧照，两人穿中式服装并坐长椅，旁有镜子与圆桌</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr"/>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "subject_objects": [
+    "两人",
+    "长椅",
+    "纸张",
+    "镜子",
+    "椅子",
+    "花盆",
+    "小圆桌",
+    "书",
+    "布帘"
+  ],
+  "scene_keywords": [
+    "剧照",
+    "室内",
+    "黑白照片",
+    "传统中式服装"
+  ],
+  "specific_context": {
+    "event_name": "新剧《神圣之爱》"
+  }
+}</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>{
+  "location": null,
+  "architecture": null,
+  "organization": null,
+  "datetime": null,
+  "work_title": "神圣之爱",
+  "event_title": "新剧《神圣之爱》剧照",
+  "event_type": null,
+  "cast": [],
+  "persons": [],
+  "entities": [
+    {
+      "type": "物品说明",
+      "text": "4寸 上品"
+    }
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>{"entities": []}</t>
         </is>
